--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>11.87436377005978</v>
+        <v>11.87521617810516</v>
       </c>
       <c r="G2" t="n">
-        <v>11.63874282239571</v>
+        <v>11.64411788020399</v>
       </c>
       <c r="H2" t="n">
-        <v>12.10282741455698</v>
+        <v>12.10248894967641</v>
       </c>
       <c r="I2" t="n">
-        <v>1.963840441479857</v>
+        <v>1.963881362547014</v>
       </c>
       <c r="J2" t="n">
-        <v>1.942382592235737</v>
+        <v>1.942777076614074</v>
       </c>
       <c r="K2" t="n">
-        <v>1.985013730573449</v>
+        <v>1.985340881616313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1527835602757959</v>
+        <v>0.1527875343608597</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1511192964027093</v>
+        <v>0.1511420402856856</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1544226118826331</v>
+        <v>0.1544346540239098</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001953478221561878</v>
+        <v>0.001952783590897234</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001207386123138044</v>
+        <v>0.00120252990512603</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002855746253793948</v>
+        <v>0.002847997915831956</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001809115525150589</v>
+        <v>0.001808441993160187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001110482423127406</v>
+        <v>0.001105933764838022</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002651686912767536</v>
+        <v>0.002644212699523138</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00203743007271802</v>
+        <v>0.002036737347825657</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001276844782280609</v>
+        <v>0.00127183433226553</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002953666713324745</v>
+        <v>0.002946034071592752</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.87716896169606</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.64532041010911</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.10533694759224</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.965689804540174</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.943883010378911</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.987985094315837</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1548242717086853</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1524138746179511</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1573806880955025</v>
       </c>
     </row>
   </sheetData>
